--- a/Model_info.xlsx
+++ b/Model_info.xlsx
@@ -37,10 +37,7 @@
     <t xml:space="preserve">Vocab Size</t>
   </si>
   <si>
-    <t xml:space="preserve">Words in Training file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">≈ Training Time</t>
+    <t xml:space="preserve">Parameters</t>
   </si>
   <si>
     <t xml:space="preserve">pre_1899_vectors</t>
@@ -52,7 +49,10 @@
     <t xml:space="preserve">/Backup Plus/nGram_download_and_sort/sorted_nGrams/1900_1909.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">/Backup Plus/R_nGram_analysis/Models/1900_1909_vectors.bin</t>
+    <t xml:space="preserve">/Backup Plus/R_nGram_analysis/Models/1900_1949_vectors.bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1</t>
   </si>
 </sst>
 </file>
@@ -62,11 +62,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,12 +83,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -139,16 +134,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,14 +167,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="53.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="53.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.18"/>
   </cols>
   <sheetData>
@@ -206,41 +197,39 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="n">
+        <v>85.4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>85.4</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="n">
+        <v>506667</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>896154</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>14668306448</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Model_info.xlsx
+++ b/Model_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Model Name</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>/Backup Plus/R_nGram_analysis/Models/2000_2009_vectors.bin</t>
+  </si>
+  <si>
+    <t>/Backup Plus/R_nGram_analysis/Models/1900_1909_vectors.bin</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -485,21 +488,18 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>638876</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>685339</v>
+        <v>638876</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>700416</v>
+        <v>685339</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -518,7 +518,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>700416</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -526,10 +529,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>903872</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>1198217</v>
+        <v>903872</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>1388859</v>
+        <v>1198217</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>1575708</v>
+        <v>1388859</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -570,10 +570,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>1818244</v>
+        <v>1575708</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -581,12 +581,23 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>1818244</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1970766</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Model_info.xlsx
+++ b/Model_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -490,7 +490,10 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="2">
+        <v>719260</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -498,7 +501,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>638876</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -509,7 +512,7 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>685339</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -520,7 +523,7 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>700416</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -531,6 +534,9 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" s="2">
+        <v>506667</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
@@ -539,7 +545,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>903872</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -550,7 +556,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1198217</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -561,7 +567,7 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1388859</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -572,7 +578,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1575708</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -583,7 +589,7 @@
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1818244</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -594,7 +600,7 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1970766</v>
       </c>
       <c r="F14" s="2" t="s">
